--- a/Python/output/case-study/FC_SA_naiveWSresults.xlsx
+++ b/Python/output/case-study/FC_SA_naiveWSresults.xlsx
@@ -359,9 +359,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -396,16 +398,16 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>23672486.68</v>
+        <v>23739094.4331953</v>
       </c>
       <c r="E2">
-        <v>1965343.1429999999</v>
+        <v>1965299.10319618</v>
       </c>
       <c r="F2">
-        <v>11.65057373</v>
+        <v>10.663063049316399</v>
       </c>
       <c r="G2">
-        <v>2.0254819390000001</v>
+        <v>1.9837939739227199</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -419,16 +421,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>18607153.18</v>
+        <v>18739642.534206901</v>
       </c>
       <c r="E3">
-        <v>1785919.93</v>
+        <v>1785863.44202079</v>
       </c>
       <c r="F3">
-        <v>11.59544301</v>
+        <v>11.0880849361419</v>
       </c>
       <c r="G3">
-        <v>2.013025045</v>
+        <v>2.0106058120727499</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -436,22 +438,22 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>4548684.37</v>
+        <v>11735847.759344799</v>
       </c>
       <c r="E4">
-        <v>728370.04550000001</v>
+        <v>1401582.2434586</v>
       </c>
       <c r="F4">
-        <v>11.465708019999999</v>
+        <v>10.973911046981801</v>
       </c>
       <c r="G4">
-        <v>2.0269119739999999</v>
+        <v>1.99527215957641</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -459,45 +461,45 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>2241498.4640000002</v>
+        <v>5004916.7991957003</v>
       </c>
       <c r="E5">
-        <v>123904.4325</v>
+        <v>731936.931542709</v>
       </c>
       <c r="F5">
-        <v>11.39072299</v>
+        <v>11.071086883544901</v>
       </c>
       <c r="G5">
-        <v>2.0162959100000002</v>
+        <v>2.0005390644073402</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>0.25</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>20573763.25</v>
+        <v>2905967.5004101801</v>
       </c>
       <c r="E6">
-        <v>1928303.419</v>
+        <v>166008.21075488001</v>
       </c>
       <c r="F6">
-        <v>334.00601510000001</v>
+        <v>11.089721918105999</v>
       </c>
       <c r="G6">
-        <v>1.942765713</v>
+        <v>2.0044071674346902</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -505,22 +507,22 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
-        <v>16282721.66</v>
+        <v>20638802.804823201</v>
       </c>
       <c r="E7">
-        <v>1739432.301</v>
+        <v>1928296.9740385299</v>
       </c>
       <c r="F7">
-        <v>362.81640010000001</v>
+        <v>335.42684102058399</v>
       </c>
       <c r="G7">
-        <v>1.9275779719999999</v>
+        <v>1.95746994018554</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -528,22 +530,22 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>4639683.54</v>
+        <v>16412690.349505199</v>
       </c>
       <c r="E8">
-        <v>673468.91350000002</v>
+        <v>1739464.10021192</v>
       </c>
       <c r="F8">
-        <v>372.81774999999999</v>
+        <v>366.63913297653198</v>
       </c>
       <c r="G8">
-        <v>1.9335069659999999</v>
+        <v>1.9419300556182799</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -551,114 +553,68 @@
         <v>2</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9">
-        <v>2329256.8199999998</v>
+        <v>10848644.8585834</v>
       </c>
       <c r="E9">
-        <v>255015.86259999999</v>
+        <v>1346427.1990076301</v>
       </c>
       <c r="F9">
-        <v>371.49452300000002</v>
+        <v>374.72174382209698</v>
       </c>
       <c r="G9">
-        <v>1.8918070789999999</v>
+        <v>1.9355940818786599</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>23682130.18</v>
+        <v>5087432.90791169</v>
       </c>
       <c r="E10">
-        <v>1965346.3659999999</v>
+        <v>675140.04135507497</v>
       </c>
       <c r="F10">
-        <v>11.62796736</v>
+        <v>372.67420101165698</v>
       </c>
       <c r="G10">
-        <v>2.2576010229999999</v>
+        <v>1.9511959552764799</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11">
-        <v>0.25</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>23691748.829999998</v>
+        <v>2936768.2832766902</v>
       </c>
       <c r="E11">
-        <v>1965347.486</v>
+        <v>262621.23432977201</v>
       </c>
       <c r="F11">
-        <v>10.543767689999999</v>
+        <v>366.65244698524401</v>
       </c>
       <c r="G11">
-        <v>2.1900641919999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>0.25</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12">
-        <v>20584994.829999998</v>
-      </c>
-      <c r="E12">
-        <v>1928259.6610000001</v>
-      </c>
-      <c r="F12">
-        <v>340.3367748</v>
-      </c>
-      <c r="G12">
-        <v>2.1129801270000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13">
-        <v>0.25</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
-      </c>
-      <c r="D13">
-        <v>20592834.920000002</v>
-      </c>
-      <c r="E13">
-        <v>1928303.6969999999</v>
-      </c>
-      <c r="F13">
-        <v>305.56496379999999</v>
-      </c>
-      <c r="G13">
-        <v>2.1717638969999999</v>
+        <v>1.9092328548431301</v>
       </c>
     </row>
   </sheetData>
